--- a/data_excel/Modules_GINF2.xlsx
+++ b/data_excel/Modules_GINF2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBooK\gestionEnsatXML\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,15 +279,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -595,10 +595,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" customWidth="1"/>
     <col min="2" max="2" width="52.81640625" customWidth="1"/>
@@ -611,123 +611,123 @@
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -739,12 +739,12 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -756,12 +756,12 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -773,12 +773,12 @@
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -790,12 +790,12 @@
       <c r="D11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -807,12 +807,12 @@
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -824,7 +824,7 @@
       <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -865,9 +865,9 @@
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -883,20 +883,20 @@
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
